--- a/Mifos Automation Excels/Client/2626-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%LOANAMT+INT-MORE-AMT-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2626-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%LOANAMT+INT-MORE-AMT-Newcreateloan2.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
   <si>
     <t>#</t>
   </si>
@@ -600,7 +600,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,23 +639,23 @@
         <v>10000</v>
       </c>
       <c r="B2" s="10">
-        <v>1426.03</v>
+        <v>1411.12</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="7">
         <v>0</v>
       </c>
       <c r="E2" s="10">
-        <v>8573.9699999999993</v>
+        <v>8588.8799999999992</v>
       </c>
       <c r="F2" s="7">
-        <v>871.27</v>
+        <v>871.2</v>
       </c>
       <c r="G2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>498.23</v>
+        <v>499.9</v>
       </c>
       <c r="B3" s="7">
         <v>73.97</v>
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>424.26</v>
+        <v>425.93</v>
       </c>
       <c r="F3" s="7">
-        <v>16.45</v>
+        <v>16.52</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -695,10 +695,10 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>8.8800000000000008</v>
+        <v>23.79</v>
       </c>
       <c r="B5" s="7">
-        <v>0</v>
+        <v>14.91</v>
       </c>
       <c r="C5" s="7">
         <v>0</v>
@@ -723,7 +723,7 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -821,7 +821,7 @@
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
@@ -838,10 +838,10 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="10">
-        <v>1426.03</v>
+        <v>1411.12</v>
       </c>
       <c r="G3" s="10">
-        <v>3573.97</v>
+        <v>3588.88</v>
       </c>
       <c r="H3" s="7">
         <v>73.97</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>14.91</v>
       </c>
       <c r="K3" s="9">
         <v>1500</v>
@@ -908,13 +908,13 @@
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7">
-        <v>871.27</v>
+        <v>871.2</v>
       </c>
       <c r="G5" s="10">
-        <v>7702.7</v>
+        <v>7717.68</v>
       </c>
       <c r="H5" s="7">
-        <v>16.45</v>
+        <v>16.52</v>
       </c>
       <c r="I5" s="7">
         <v>0</v>
@@ -951,13 +951,13 @@
       <c r="D6" s="7"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7">
-        <v>800.34</v>
+        <v>800.18</v>
       </c>
       <c r="G6" s="10">
-        <v>6902.36</v>
+        <v>6917.5</v>
       </c>
       <c r="H6" s="7">
-        <v>87.38</v>
+        <v>87.54</v>
       </c>
       <c r="I6" s="7">
         <v>0</v>
@@ -994,13 +994,13 @@
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
       <c r="F7" s="7">
-        <v>819.64</v>
+        <v>819.49</v>
       </c>
       <c r="G7" s="10">
-        <v>6082.72</v>
+        <v>6098.01</v>
       </c>
       <c r="H7" s="7">
-        <v>68.08</v>
+        <v>68.23</v>
       </c>
       <c r="I7" s="7">
         <v>0</v>
@@ -1037,13 +1037,13 @@
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7">
-        <v>825.73</v>
+        <v>825.57</v>
       </c>
       <c r="G8" s="10">
-        <v>5256.99</v>
+        <v>5272.44</v>
       </c>
       <c r="H8" s="7">
-        <v>61.99</v>
+        <v>62.15</v>
       </c>
       <c r="I8" s="7">
         <v>0</v>
@@ -1080,13 +1080,13 @@
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
       <c r="F9" s="7">
-        <v>835.87</v>
+        <v>835.72</v>
       </c>
       <c r="G9" s="10">
-        <v>4421.12</v>
+        <v>4436.72</v>
       </c>
       <c r="H9" s="7">
-        <v>51.85</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7">
         <v>0</v>
@@ -1123,13 +1123,13 @@
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7">
-        <v>842.66</v>
+        <v>842.5</v>
       </c>
       <c r="G10" s="10">
-        <v>3578.46</v>
+        <v>3594.22</v>
       </c>
       <c r="H10" s="7">
-        <v>45.06</v>
+        <v>45.22</v>
       </c>
       <c r="I10" s="7">
         <v>0</v>
@@ -1166,13 +1166,13 @@
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7">
-        <v>851.25</v>
+        <v>851.09</v>
       </c>
       <c r="G11" s="10">
-        <v>2727.21</v>
+        <v>2743.13</v>
       </c>
       <c r="H11" s="7">
-        <v>36.47</v>
+        <v>36.630000000000003</v>
       </c>
       <c r="I11" s="7">
         <v>0</v>
@@ -1209,13 +1209,13 @@
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
       <c r="F12" s="7">
-        <v>860.82</v>
+        <v>860.66</v>
       </c>
       <c r="G12" s="10">
-        <v>1866.39</v>
+        <v>1882.47</v>
       </c>
       <c r="H12" s="7">
-        <v>26.9</v>
+        <v>27.06</v>
       </c>
       <c r="I12" s="7">
         <v>0</v>
@@ -1252,13 +1252,13 @@
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
       <c r="F13" s="7">
-        <v>868.7</v>
-      </c>
-      <c r="G13" s="7">
-        <v>997.69</v>
+        <v>868.53</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1013.94</v>
       </c>
       <c r="H13" s="7">
-        <v>19.02</v>
+        <v>19.190000000000001</v>
       </c>
       <c r="I13" s="7">
         <v>0</v>
@@ -1295,13 +1295,13 @@
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7">
-        <v>877.88</v>
+        <v>877.72</v>
       </c>
       <c r="G14" s="7">
-        <v>119.81</v>
+        <v>136.22</v>
       </c>
       <c r="H14" s="7">
-        <v>9.84</v>
+        <v>10</v>
       </c>
       <c r="I14" s="7">
         <v>0</v>
@@ -1338,13 +1338,13 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7">
-        <v>119.81</v>
+        <v>136.22</v>
       </c>
       <c r="G15" s="7">
         <v>0</v>
       </c>
       <c r="H15" s="7">
-        <v>1.22</v>
+        <v>1.39</v>
       </c>
       <c r="I15" s="7">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="7">
-        <v>121.03</v>
+        <v>137.61000000000001</v>
       </c>
       <c r="L15" s="7">
         <v>0</v>
@@ -1365,7 +1365,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="7">
-        <v>121.03</v>
+        <v>137.61000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1376,10 +1376,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1431,7 +1431,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
-        <v>252</v>
+        <v>85</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>27</v>
@@ -1443,13 +1443,13 @@
         <v>34</v>
       </c>
       <c r="E2" s="7">
-        <v>87.38</v>
+        <v>87.54</v>
       </c>
       <c r="F2" s="7">
         <v>0</v>
       </c>
       <c r="G2" s="7">
-        <v>87.38</v>
+        <v>87.54</v>
       </c>
       <c r="H2" s="7">
         <v>0</v>
@@ -1465,7 +1465,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
-        <v>251</v>
+        <v>84</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>27</v>
@@ -1477,13 +1477,13 @@
         <v>34</v>
       </c>
       <c r="E3" s="7">
-        <v>25.33</v>
+        <v>25.4</v>
       </c>
       <c r="F3" s="7">
         <v>0</v>
       </c>
       <c r="G3" s="7">
-        <v>16.45</v>
+        <v>16.52</v>
       </c>
       <c r="H3" s="7">
         <v>0</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
-        <v>248</v>
+        <v>79</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>27</v>
@@ -1525,15 +1525,15 @@
       <c r="I4" s="7">
         <v>0</v>
       </c>
-      <c r="J4" s="9">
-        <v>10000</v>
+      <c r="J4" s="10">
+        <v>8588.8799999999992</v>
       </c>
       <c r="K4" s="11"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
-        <v>250</v>
+        <v>83</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>27</v>
@@ -1545,7 +1545,7 @@
         <v>34</v>
       </c>
       <c r="E5" s="7">
-        <v>73.97</v>
+        <v>88.88</v>
       </c>
       <c r="F5" s="7">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>14.91</v>
       </c>
       <c r="J5" s="7">
         <v>0</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
-        <v>249</v>
+        <v>78</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>27</v>
@@ -1582,7 +1582,7 @@
         <v>1500</v>
       </c>
       <c r="F6" s="10">
-        <v>1426.03</v>
+        <v>1411.12</v>
       </c>
       <c r="G6" s="7">
         <v>73.97</v>
@@ -1591,47 +1591,81 @@
         <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <v>0</v>
+        <v>14.91</v>
+      </c>
+      <c r="J6" s="10">
+        <v>3588.88</v>
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
-        <v>245</v>
+        <v>77</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>27</v>
       </c>
       <c r="C7" s="8">
+        <v>42050</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="9">
+        <v>1500</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1426.03</v>
+      </c>
+      <c r="G7" s="7">
+        <v>73.97</v>
+      </c>
+      <c r="H7" s="7">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
+        <v>3573.97</v>
+      </c>
+      <c r="K7" s="7"/>
+      <c r="L7" s="11"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>76</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8">
         <v>42005</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="9">
+      <c r="E8" s="9">
         <v>5000</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="7">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
-      <c r="J7" s="9">
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="9">
         <v>5000</v>
       </c>
-      <c r="K7"/>
-      <c r="L7"/>
+      <c r="K8"/>
+      <c r="L8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Mifos Automation Excels/Client/2626-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%LOANAMT+INT-MORE-AMT-Newcreateloan2.xlsx
+++ b/Mifos Automation Excels/Client/2626-MS-EI-DB-DL-REC-NOCOM-RNI-CTPD-DL-MD-TR-2-DATE-VAR-INST-OVERDUE-FEE-%LOANAMT+INT-MORE-AMT-Newcreateloan2.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="5" r:id="rId1"/>
@@ -127,7 +132,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -262,6 +267,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -309,7 +317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -342,9 +350,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -377,6 +402,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -720,10 +762,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S6" sqref="S6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,12 +783,13 @@
     <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="8.5703125" customWidth="1"/>
     <col min="13" max="13" width="11" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="4.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11" customWidth="1"/>
+    <col min="15" max="15" width="4.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -786,17 +829,18 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="Q1" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
       <c r="B2" s="7"/>
       <c r="C2" s="8">
@@ -821,9 +865,10 @@
       </c>
       <c r="M2" s="7"/>
       <c r="N2" s="7"/>
-      <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O2" s="7"/>
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>1</v>
       </c>
@@ -861,14 +906,15 @@
       <c r="M3" s="7">
         <v>0</v>
       </c>
-      <c r="N3" s="7">
-        <v>0</v>
-      </c>
-      <c r="P3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="N3" s="7"/>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="7"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8">
@@ -893,9 +939,10 @@
       </c>
       <c r="M4" s="7"/>
       <c r="N4" s="7"/>
-      <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O4" s="7"/>
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="7">
         <v>2</v>
       </c>
@@ -931,14 +978,15 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7">
-        <v>0</v>
-      </c>
-      <c r="P5" s="7">
+      <c r="N5" s="7"/>
+      <c r="O5" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="7">
         <v>896.6</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>3</v>
       </c>
@@ -974,14 +1022,15 @@
       <c r="M6" s="7">
         <v>0</v>
       </c>
-      <c r="N6" s="7">
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
+      <c r="N6" s="7"/>
+      <c r="O6" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>4</v>
       </c>
@@ -1017,14 +1066,15 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7">
-        <v>0</v>
-      </c>
-      <c r="P7" s="7">
+      <c r="N7" s="7"/>
+      <c r="O7" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>5</v>
       </c>
@@ -1060,14 +1110,15 @@
       <c r="M8" s="7">
         <v>0</v>
       </c>
-      <c r="N8" s="7">
-        <v>0</v>
-      </c>
-      <c r="P8" s="7">
+      <c r="N8" s="7"/>
+      <c r="O8" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>6</v>
       </c>
@@ -1103,14 +1154,15 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-      <c r="N9" s="7">
-        <v>0</v>
-      </c>
-      <c r="P9" s="7">
+      <c r="N9" s="7"/>
+      <c r="O9" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>7</v>
       </c>
@@ -1146,14 +1198,15 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-      <c r="N10" s="7">
-        <v>0</v>
-      </c>
-      <c r="P10" s="7">
+      <c r="N10" s="7"/>
+      <c r="O10" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>8</v>
       </c>
@@ -1189,14 +1242,15 @@
       <c r="M11" s="7">
         <v>0</v>
       </c>
-      <c r="N11" s="7">
-        <v>0</v>
-      </c>
-      <c r="P11" s="7">
+      <c r="N11" s="7"/>
+      <c r="O11" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>9</v>
       </c>
@@ -1232,14 +1286,15 @@
       <c r="M12" s="7">
         <v>0</v>
       </c>
-      <c r="N12" s="7">
-        <v>0</v>
-      </c>
-      <c r="P12" s="7">
+      <c r="N12" s="7"/>
+      <c r="O12" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>10</v>
       </c>
@@ -1275,14 +1330,15 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-      <c r="N13" s="7">
-        <v>0</v>
-      </c>
-      <c r="P13" s="7">
+      <c r="N13" s="7"/>
+      <c r="O13" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>11</v>
       </c>
@@ -1318,14 +1374,15 @@
       <c r="M14" s="7">
         <v>0</v>
       </c>
-      <c r="N14" s="7">
-        <v>0</v>
-      </c>
-      <c r="P14" s="7">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="7">
         <v>887.72</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>12</v>
       </c>
@@ -1361,10 +1418,11 @@
       <c r="M15" s="7">
         <v>0</v>
       </c>
-      <c r="N15" s="7">
-        <v>0</v>
-      </c>
-      <c r="P15" s="7">
+      <c r="N15" s="7"/>
+      <c r="O15" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="7">
         <v>137.61000000000001</v>
       </c>
     </row>
@@ -1378,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
